--- a/assets/data/MSME Country Indicators - United Arab Emirates Summary.xlsx
+++ b/assets/data/MSME Country Indicators - United Arab Emirates Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>United Arab Emirates</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: Statistical Institution</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -31,6 +34,18 @@
     <t>Enterprises (% of total)</t>
   </si>
   <si>
+    <t>73.6</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>97.4</t>
+  </si>
+  <si>
+    <t>Source: DSC, 2008</t>
+  </si>
+  <si>
     <t>Sector Distribution Details</t>
   </si>
   <si>
@@ -185,6 +200,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>Dubai Statistics Center (DSC), "Establishments Distribution by Economic Activity and Workers Group - Emirate of Dubai", 2008. Available at http://dsc.gov.ae/Reports/Establishments%20Distribution%20%20by%20Economic%20Activity%20and%20Workers%20Group.pdf</t>
   </si>
 </sst>
 </file>
@@ -192,7 +213,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -203,6 +224,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -235,26 +262,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -262,7 +292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -278,19 +308,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -298,214 +328,243 @@
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="20">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
+      <c r="B21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+    <row r="29">
+      <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A25" r:id="rId1"/>
+    <hyperlink ref="A32" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/assets/data/MSME Country Indicators - United Arab Emirates Summary.xlsx
+++ b/assets/data/MSME Country Indicators - United Arab Emirates Summary.xlsx
@@ -193,19 +193,21 @@
     <t>Source:</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>DUBAI STATISTICS CENTER</t>
   </si>
   <si>
     <t>http://dsc.gov.ae/Reports/Establishments%20Distribution%20%20by%20Economic%20Activity%20and%20Workers%20Group.pdf</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>DSC</t>
   </si>
   <si>
-    <t>Dubai Statistics Center (DSC), "Establishments Distribution by Economic Activity and Workers Group - Emirate of Dubai", 2008. Available at http://dsc.gov.ae/Reports/Establishments%20Distribution%20%20by%20Economic%20Activity%20and%20Workers%20Group.pdf</t>
+    <t>Dubai SME an agency of the Department of Economic Development, "THE STATE OF SMALL &amp; MEDIUM ENTERPRISES (SMEs) IN DUBAI". Available at http://www.sme.ae/upload/category/SME_Report_English.pdf. 
+Mohammed Bin Rashid - Establishment for SME Development, "THE DEFINITION OF MICRO, SMALL &amp; MEDIUM ENTERPRISES (MSMEs) OF DUBAI". Available at http://www.sme.ae/upload/category/SME_l_DEFINITION_l_English.pdf
+It is important to note that UAE Issued Federal Law No. 2 of 2014 for Small and Medium Enterprises. In it, it is detailed in article 4 that the UAE Cabinet "must issue a decree on the united definition of SMEs, based on the recommedations of the SME Council, in consultation with competent local authorities".</t>
   </si>
 </sst>
 </file>
@@ -292,7 +294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -543,29 +545,31 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
+    <row r="37">
+      <c r="A37" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
+    <row r="38">
+      <c r="A38" s="4" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A32" r:id="rId1"/>
-  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/assets/data/MSME Country Indicators - United Arab Emirates Summary.xlsx
+++ b/assets/data/MSME Country Indicators - United Arab Emirates Summary.xlsx
@@ -34,13 +34,13 @@
     <t>Enterprises (% of total)</t>
   </si>
   <si>
-    <t>73.6</t>
-  </si>
-  <si>
-    <t>23.7</t>
-  </si>
-  <si>
-    <t>97.4</t>
+    <t>73.62</t>
+  </si>
+  <si>
+    <t>23.74</t>
+  </si>
+  <si>
+    <t>97.36</t>
   </si>
   <si>
     <t>Source: DSC, 2008</t>
